--- a/Code/Results/Cases/Case_2_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.510970000904933</v>
+        <v>0.8087598739804776</v>
       </c>
       <c r="C2">
-        <v>0.7476536679263006</v>
+        <v>0.2372124282664458</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1901575332725969</v>
+        <v>0.1137671238965225</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.4852078707996839</v>
+        <v>0.3851836419636641</v>
       </c>
       <c r="H2">
-        <v>0.3095560937649111</v>
+        <v>0.5131697835815316</v>
       </c>
       <c r="I2">
-        <v>0.1898965155718884</v>
+        <v>0.3537939942671571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.005014648514845</v>
+        <v>0.3489902609068523</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.181956338851307</v>
+        <v>0.7078462491325013</v>
       </c>
       <c r="C3">
-        <v>0.6512379473454644</v>
+        <v>0.2075993236583997</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1660336918541105</v>
+        <v>0.1087946720881305</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.4359540667619939</v>
+        <v>0.3802018693666724</v>
       </c>
       <c r="H3">
-        <v>0.2966905703820828</v>
+        <v>0.5171572906993589</v>
       </c>
       <c r="I3">
-        <v>0.1911545655591738</v>
+        <v>0.3606072632121169</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8682019797773179</v>
+        <v>0.3103254445750281</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980843459216715</v>
+        <v>0.645779354924116</v>
       </c>
       <c r="C4">
-        <v>0.5924022207597943</v>
+        <v>0.1893471889719933</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1517247150647236</v>
+        <v>0.1058507841661722</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.4081841077987036</v>
+        <v>0.377736924566122</v>
       </c>
       <c r="H4">
-        <v>0.290170079122035</v>
+        <v>0.5200936009997719</v>
       </c>
       <c r="I4">
-        <v>0.1933218813216477</v>
+        <v>0.3652370053568212</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7851184823482527</v>
+        <v>0.2866612629689413</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.899060064582159</v>
+        <v>0.6204607587437749</v>
       </c>
       <c r="C5">
-        <v>0.5684968250599525</v>
+        <v>0.1818917731582701</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1460061987840895</v>
+        <v>0.1046782845674663</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.3974332745674474</v>
+        <v>0.3768803600719508</v>
       </c>
       <c r="H5">
-        <v>0.2878340063949736</v>
+        <v>0.5214123348922328</v>
       </c>
       <c r="I5">
-        <v>0.1945308559065602</v>
+        <v>0.3672352670966674</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.751455816567443</v>
+        <v>0.2770367868175683</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.885488833468486</v>
+        <v>0.6162550860845215</v>
       </c>
       <c r="C6">
-        <v>0.5645310403540407</v>
+        <v>0.1806527480325713</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1450630496366898</v>
+        <v>0.1044852233259554</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.3956807101375261</v>
+        <v>0.3767470207647676</v>
       </c>
       <c r="H6">
-        <v>0.287464779870362</v>
+        <v>0.5216386722626538</v>
       </c>
       <c r="I6">
-        <v>0.1947505843248756</v>
+        <v>0.3675737988605654</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7458768836958143</v>
+        <v>0.2754397814913716</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979739874305153</v>
+        <v>0.6454380031282767</v>
       </c>
       <c r="C7">
-        <v>0.5920795645860721</v>
+        <v>0.1892467136071616</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1516471553428289</v>
+        <v>0.1058348618640466</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.4080368990627932</v>
+        <v>0.3777247755909912</v>
       </c>
       <c r="H7">
-        <v>0.2901373065793535</v>
+        <v>0.5201108919893898</v>
       </c>
       <c r="I7">
-        <v>0.1933368986464536</v>
+        <v>0.3652635035819216</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7846637547922981</v>
+        <v>0.2865313878799753</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.397303939986045</v>
+        <v>0.7739871399975868</v>
       </c>
       <c r="C8">
-        <v>0.7143208757291575</v>
+        <v>0.2270162407345708</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1817264077596263</v>
+        <v>0.1120297687232892</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.4676770899268092</v>
+        <v>0.3833418114083997</v>
       </c>
       <c r="H8">
-        <v>0.304817799496675</v>
+        <v>0.51444307372374</v>
       </c>
       <c r="I8">
-        <v>0.1900251890440536</v>
+        <v>0.356050182205248</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9576275757771739</v>
+        <v>0.3356426375975659</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.226082651635352</v>
+        <v>1.025216988216869</v>
       </c>
       <c r="C9">
-        <v>0.9579684596573941</v>
+        <v>0.3005353470534828</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2454008496650673</v>
+        <v>0.1250590703536574</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6070006824139682</v>
+        <v>0.3991339319523632</v>
       </c>
       <c r="H9">
-        <v>0.345811288491646</v>
+        <v>0.5072249542675564</v>
       </c>
       <c r="I9">
-        <v>0.1958236522282029</v>
+        <v>0.3415532060472124</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.305944760347856</v>
+        <v>0.4325721184494</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.845365346151198</v>
+        <v>1.209271102391028</v>
       </c>
       <c r="C10">
-        <v>1.141003528673934</v>
+        <v>0.3542292099792803</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2961227442377705</v>
+        <v>0.1351900343990593</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.7272282856849017</v>
+        <v>0.4137400523715513</v>
       </c>
       <c r="H10">
-        <v>0.3853095660045085</v>
+        <v>0.5043318589107599</v>
       </c>
       <c r="I10">
-        <v>0.2094530541027915</v>
+        <v>0.3331181246827448</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.570273802909981</v>
+        <v>0.504198306299358</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.130440220313233</v>
+        <v>1.292889101552419</v>
       </c>
       <c r="C11">
-        <v>1.225560182295169</v>
+        <v>0.3785894934084695</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3203293933438545</v>
+        <v>0.1399247686883243</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.7868698539708419</v>
+        <v>0.4210567419546294</v>
       </c>
       <c r="H11">
-        <v>0.4058049866446964</v>
+        <v>0.5035465625803823</v>
       </c>
       <c r="I11">
-        <v>0.2181602467364847</v>
+        <v>0.3297703958046156</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.69307646734643</v>
+        <v>0.5368800103832569</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.238976067993121</v>
+        <v>1.324537051184052</v>
       </c>
       <c r="C12">
-        <v>1.25780469136356</v>
+        <v>0.3878048544087278</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3296851506432361</v>
+        <v>0.1417361826034949</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.8102674285493094</v>
+        <v>0.423925629884323</v>
       </c>
       <c r="H12">
-        <v>0.4139759742138409</v>
+        <v>0.5033261258168551</v>
       </c>
       <c r="I12">
-        <v>0.22186274583607</v>
+        <v>0.3285737766008197</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.740014912687968</v>
+        <v>0.5492703687344118</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.215573215290647</v>
+        <v>1.317721837639169</v>
       </c>
       <c r="C13">
-        <v>1.250849595633667</v>
+        <v>0.385820576588003</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3276613506749655</v>
+        <v>0.1413452352023228</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.8051904674127712</v>
+        <v>0.4233033707528477</v>
       </c>
       <c r="H13">
-        <v>0.412197182023661</v>
+        <v>0.503370169221725</v>
       </c>
       <c r="I13">
-        <v>0.2210465531476657</v>
+        <v>0.3288283166933894</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.729885329670779</v>
+        <v>0.546601232858734</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.139357201634255</v>
+        <v>1.295493129323688</v>
       </c>
       <c r="C14">
-        <v>1.22820821433163</v>
+        <v>0.3793478338083673</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3210951423286659</v>
+        <v>0.1400734226291718</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.7887778805356049</v>
+        <v>0.4212907898465375</v>
       </c>
       <c r="H14">
-        <v>0.4064687202922386</v>
+        <v>0.5035268816549063</v>
       </c>
       <c r="I14">
-        <v>0.2184564563692426</v>
+        <v>0.3296705203191017</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.696928970467724</v>
+        <v>0.537899079974693</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.092751966971093</v>
+        <v>1.281875251858992</v>
       </c>
       <c r="C15">
-        <v>1.214370213672169</v>
+        <v>0.3753818757820113</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3170986295460025</v>
+        <v>0.139296816506878</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.7788337180209624</v>
+        <v>0.4200708624119329</v>
       </c>
       <c r="H15">
-        <v>0.4030147112763132</v>
+        <v>0.5036329103173642</v>
       </c>
       <c r="I15">
-        <v>0.2169241425718766</v>
+        <v>0.3301956739764158</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.676801149496271</v>
+        <v>0.532570659142479</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.826811019590821</v>
+        <v>1.203804214801096</v>
       </c>
       <c r="C16">
-        <v>1.135506784454265</v>
+        <v>0.3526358972694084</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2945657565563948</v>
+        <v>0.1348831748763715</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.7234385252471043</v>
+        <v>0.4132755494388363</v>
       </c>
       <c r="H16">
-        <v>0.3840248438292235</v>
+        <v>0.5043939128754431</v>
       </c>
       <c r="I16">
-        <v>0.2089381784825619</v>
+        <v>0.3333468161973911</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.562305456811387</v>
+        <v>0.5020644918913035</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.664593770022179</v>
+        <v>1.155881718572687</v>
       </c>
       <c r="C17">
-        <v>1.087483993672265</v>
+        <v>0.3386652741210128</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2810504725506888</v>
+        <v>0.1322080880331455</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.6907912381850707</v>
+        <v>0.4092801309806902</v>
       </c>
       <c r="H17">
-        <v>0.3730538623303801</v>
+        <v>0.5049971448784731</v>
       </c>
       <c r="I17">
-        <v>0.2047114519380919</v>
+        <v>0.3354058021268465</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.49276707042263</v>
+        <v>0.4833754290709606</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.571600272899957</v>
+        <v>1.12830773230354</v>
       </c>
       <c r="C18">
-        <v>1.059981685747687</v>
+        <v>0.3306235895069563</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.273381728465445</v>
+        <v>0.1306812982994501</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.6724725615241596</v>
+        <v>0.407045258939803</v>
       </c>
       <c r="H18">
-        <v>0.3669784670245235</v>
+        <v>0.5053940315070236</v>
       </c>
       <c r="I18">
-        <v>0.2025133693735128</v>
+        <v>0.3366361012875849</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.453006694788357</v>
+        <v>0.4726352341110669</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.54016454923601</v>
+        <v>1.118969917720847</v>
       </c>
       <c r="C19">
-        <v>1.050689229629825</v>
+        <v>0.3278997554952525</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.270802488953592</v>
+        <v>0.1301663784133638</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.6663461488643065</v>
+        <v>0.4062993751688992</v>
       </c>
       <c r="H19">
-        <v>0.3649604463996781</v>
+        <v>0.505536966319184</v>
       </c>
       <c r="I19">
-        <v>0.2018078755197585</v>
+        <v>0.3370605425551787</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.439583153368034</v>
+        <v>0.4690003691381008</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.681829338186787</v>
+        <v>1.160984214256359</v>
       </c>
       <c r="C20">
-        <v>1.092583505709541</v>
+        <v>0.3401531071751833</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2824781616692178</v>
+        <v>0.1324916267741827</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.694218380300498</v>
+        <v>0.4096988993376982</v>
       </c>
       <c r="H20">
-        <v>0.3741971197871266</v>
+        <v>0.5049277585002159</v>
       </c>
       <c r="I20">
-        <v>0.205136969588672</v>
+        <v>0.3351818510070466</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.500144631448677</v>
+        <v>0.4853639510116636</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.161726974608712</v>
+        <v>1.302022689390242</v>
       </c>
       <c r="C21">
-        <v>1.234852104880417</v>
+        <v>0.3812492886266909</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3230184353151344</v>
+        <v>0.1404464807521535</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.7935757382855826</v>
+        <v>0.4218792557769717</v>
       </c>
       <c r="H21">
-        <v>0.4081397893466061</v>
+        <v>0.5034787584571205</v>
       </c>
       <c r="I21">
-        <v>0.2192058490145143</v>
+        <v>0.3294212095588982</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.706596644298628</v>
+        <v>0.5404547168535032</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.478828490671333</v>
+        <v>1.394103761667907</v>
       </c>
       <c r="C22">
-        <v>1.329164340761281</v>
+        <v>0.4080535473758005</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3506314845475558</v>
+        <v>0.14575327043719</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.8633037063000728</v>
+        <v>0.4304130210032326</v>
       </c>
       <c r="H22">
-        <v>0.432737620759184</v>
+        <v>0.5029804916732559</v>
       </c>
       <c r="I22">
-        <v>0.230787587824679</v>
+        <v>0.3260710145700898</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.844102445955542</v>
+        <v>0.5765444304992258</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.309232278919978</v>
+        <v>1.344967336497007</v>
       </c>
       <c r="C23">
-        <v>1.27869221241383</v>
+        <v>0.3937525778320605</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3357820364372586</v>
+        <v>0.1429109575836662</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.825613576233863</v>
+        <v>0.4258054319502236</v>
       </c>
       <c r="H23">
-        <v>0.4193715956809996</v>
+        <v>0.5032051638058874</v>
       </c>
       <c r="I23">
-        <v>0.2243716094665729</v>
+        <v>0.327820893850042</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.770452539987559</v>
+        <v>0.5572748085850492</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.674036312536884</v>
+        <v>1.158677446632964</v>
       </c>
       <c r="C24">
-        <v>1.090277687047632</v>
+        <v>0.3394804883452593</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2818323896106563</v>
+        <v>0.1323634041955586</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.6926675730476148</v>
+        <v>0.4095093807009107</v>
       </c>
       <c r="H24">
-        <v>0.3736795339986259</v>
+        <v>0.504958972131007</v>
       </c>
       <c r="I24">
-        <v>0.2049438740012697</v>
+        <v>0.3352829543300366</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.496808561587955</v>
+        <v>0.4844649265785392</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.00039265958867</v>
+        <v>0.9573446041297871</v>
       </c>
       <c r="C25">
-        <v>0.8914764373170385</v>
+        <v>0.2807037316394485</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2275686110558368</v>
+        <v>0.1214377892622949</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.5665041457516367</v>
+        <v>0.3943408841237925</v>
       </c>
       <c r="H25">
-        <v>0.333226364766773</v>
+        <v>0.5087569279820201</v>
       </c>
       <c r="I25">
-        <v>0.1927566501811668</v>
+        <v>0.3450887399219198</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.21046128106353</v>
+        <v>0.4062801490012333</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8087598739804776</v>
+        <v>2.51097000090499</v>
       </c>
       <c r="C2">
-        <v>0.2372124282664458</v>
+        <v>0.7476536679264996</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1137671238965225</v>
+        <v>0.1901575332725827</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3851836419636641</v>
+        <v>0.4852078707996839</v>
       </c>
       <c r="H2">
-        <v>0.5131697835815316</v>
+        <v>0.309556093765039</v>
       </c>
       <c r="I2">
-        <v>0.3537939942671571</v>
+        <v>0.189896515571899</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3489902609068523</v>
+        <v>1.005014648514852</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7078462491325013</v>
+        <v>2.181956338851194</v>
       </c>
       <c r="C3">
-        <v>0.2075993236583997</v>
+        <v>0.6512379473452086</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1087946720881305</v>
+        <v>0.1660336918541248</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3802018693666724</v>
+        <v>0.4359540667620507</v>
       </c>
       <c r="H3">
-        <v>0.5171572906993589</v>
+        <v>0.296690570382097</v>
       </c>
       <c r="I3">
-        <v>0.3606072632121169</v>
+        <v>0.1911545655591844</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3103254445750281</v>
+        <v>0.8682019797773037</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.645779354924116</v>
+        <v>1.980843459216629</v>
       </c>
       <c r="C4">
-        <v>0.1893471889719933</v>
+        <v>0.5924022207597943</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1058507841661722</v>
+        <v>0.1517247150647023</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.377736924566122</v>
+        <v>0.408184107798661</v>
       </c>
       <c r="H4">
-        <v>0.5200936009997719</v>
+        <v>0.290170079122035</v>
       </c>
       <c r="I4">
-        <v>0.3652370053568212</v>
+        <v>0.1933218813216406</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2866612629689413</v>
+        <v>0.7851184823482527</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6204607587437749</v>
+        <v>1.899060064582272</v>
       </c>
       <c r="C5">
-        <v>0.1818917731582701</v>
+        <v>0.5684968250600377</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1046782845674663</v>
+        <v>0.1460061987840895</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3768803600719508</v>
+        <v>0.3974332745675042</v>
       </c>
       <c r="H5">
-        <v>0.5214123348922328</v>
+        <v>0.2878340063949736</v>
       </c>
       <c r="I5">
-        <v>0.3672352670966674</v>
+        <v>0.1945308559065602</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2770367868175683</v>
+        <v>0.7514558165674572</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6162550860845215</v>
+        <v>1.885488833468486</v>
       </c>
       <c r="C6">
-        <v>0.1806527480325713</v>
+        <v>0.5645310403540122</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1044852233259554</v>
+        <v>0.1450630496366934</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3767470207647676</v>
+        <v>0.3956807101376398</v>
       </c>
       <c r="H6">
-        <v>0.5216386722626538</v>
+        <v>0.287464779870362</v>
       </c>
       <c r="I6">
-        <v>0.3675737988605654</v>
+        <v>0.1947505843248791</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2754397814913716</v>
+        <v>0.7458768836958214</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6454380031282767</v>
+        <v>1.979739874305011</v>
       </c>
       <c r="C7">
-        <v>0.1892467136071616</v>
+        <v>0.5920795645858448</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1058348618640466</v>
+        <v>0.1516471553428147</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3777247755909912</v>
+        <v>0.4080368990627932</v>
       </c>
       <c r="H7">
-        <v>0.5201108919893898</v>
+        <v>0.2901373065792257</v>
       </c>
       <c r="I7">
-        <v>0.3652635035819216</v>
+        <v>0.1933368986464501</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2865313878799753</v>
+        <v>0.784663754792291</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7739871399975868</v>
+        <v>2.397303939985989</v>
       </c>
       <c r="C8">
-        <v>0.2270162407345708</v>
+        <v>0.7143208757287027</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1120297687232892</v>
+        <v>0.1817264077596263</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3833418114083997</v>
+        <v>0.4676770899266955</v>
       </c>
       <c r="H8">
-        <v>0.51444307372374</v>
+        <v>0.3048177994966892</v>
       </c>
       <c r="I8">
-        <v>0.356050182205248</v>
+        <v>0.1900251890440536</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3356426375975659</v>
+        <v>0.9576275757771739</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.025216988216869</v>
+        <v>3.226082651635295</v>
       </c>
       <c r="C9">
-        <v>0.3005353470534828</v>
+        <v>0.9579684596574793</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1250590703536574</v>
+        <v>0.2454008496650957</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.3991339319523632</v>
+        <v>0.6070006824139824</v>
       </c>
       <c r="H9">
-        <v>0.5072249542675564</v>
+        <v>0.3458112884916318</v>
       </c>
       <c r="I9">
-        <v>0.3415532060472124</v>
+        <v>0.1958236522282171</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4325721184494</v>
+        <v>1.305944760347842</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.209271102391028</v>
+        <v>3.845365346151141</v>
       </c>
       <c r="C10">
-        <v>0.3542292099792803</v>
+        <v>1.141003528673593</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1351900343990593</v>
+        <v>0.2961227442377634</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.4137400523715513</v>
+        <v>0.7272282856848875</v>
       </c>
       <c r="H10">
-        <v>0.5043318589107599</v>
+        <v>0.3853095660044943</v>
       </c>
       <c r="I10">
-        <v>0.3331181246827448</v>
+        <v>0.2094530541027915</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.504198306299358</v>
+        <v>1.570273802909981</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.292889101552419</v>
+        <v>4.130440220313346</v>
       </c>
       <c r="C11">
-        <v>0.3785894934084695</v>
+        <v>1.225560182295453</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1399247686883243</v>
+        <v>0.3203293933438687</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.4210567419546294</v>
+        <v>0.7868698539708134</v>
       </c>
       <c r="H11">
-        <v>0.5035465625803823</v>
+        <v>0.4058049866446964</v>
       </c>
       <c r="I11">
-        <v>0.3297703958046156</v>
+        <v>0.2181602467365025</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5368800103832569</v>
+        <v>1.693076467346415</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.324537051184052</v>
+        <v>4.238976067993008</v>
       </c>
       <c r="C12">
-        <v>0.3878048544087278</v>
+        <v>1.257804691363674</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1417361826034949</v>
+        <v>0.3296851506432148</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.423925629884323</v>
+        <v>0.8102674285493237</v>
       </c>
       <c r="H12">
-        <v>0.5033261258168551</v>
+        <v>0.4139759742138267</v>
       </c>
       <c r="I12">
-        <v>0.3285737766008197</v>
+        <v>0.22186274583607</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5492703687344118</v>
+        <v>1.740014912687997</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.317721837639169</v>
+        <v>4.215573215290817</v>
       </c>
       <c r="C13">
-        <v>0.385820576588003</v>
+        <v>1.250849595633611</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1413452352023228</v>
+        <v>0.3276613506749229</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.4233033707528477</v>
+        <v>0.8051904674127712</v>
       </c>
       <c r="H13">
-        <v>0.503370169221725</v>
+        <v>0.4121971820236752</v>
       </c>
       <c r="I13">
-        <v>0.3288283166933894</v>
+        <v>0.22104655314768</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.546601232858734</v>
+        <v>1.729885329670779</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.295493129323688</v>
+        <v>4.139357201634368</v>
       </c>
       <c r="C14">
-        <v>0.3793478338083673</v>
+        <v>1.228208214331801</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1400734226291718</v>
+        <v>0.321095142328673</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.4212907898465375</v>
+        <v>0.7887778805357044</v>
       </c>
       <c r="H14">
-        <v>0.5035268816549063</v>
+        <v>0.4064687202922386</v>
       </c>
       <c r="I14">
-        <v>0.3296705203191017</v>
+        <v>0.2184564563692568</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.537899079974693</v>
+        <v>1.696928970467752</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.281875251858992</v>
+        <v>4.09275196697098</v>
       </c>
       <c r="C15">
-        <v>0.3753818757820113</v>
+        <v>1.214370213672055</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.139296816506878</v>
+        <v>0.3170986295460096</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.4200708624119329</v>
+        <v>0.7788337180209624</v>
       </c>
       <c r="H15">
-        <v>0.5036329103173642</v>
+        <v>0.4030147112761853</v>
       </c>
       <c r="I15">
-        <v>0.3301956739764158</v>
+        <v>0.2169241425718624</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.532570659142479</v>
+        <v>1.676801149496242</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.203804214801096</v>
+        <v>3.826811019590707</v>
       </c>
       <c r="C16">
-        <v>0.3526358972694084</v>
+        <v>1.135506784454464</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1348831748763715</v>
+        <v>0.2945657565563877</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.4132755494388363</v>
+        <v>0.7234385252471185</v>
       </c>
       <c r="H16">
-        <v>0.5043939128754431</v>
+        <v>0.3840248438292093</v>
       </c>
       <c r="I16">
-        <v>0.3333468161973911</v>
+        <v>0.2089381784825584</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5020644918913035</v>
+        <v>1.562305456811359</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.155881718572687</v>
+        <v>3.664593770022236</v>
       </c>
       <c r="C17">
-        <v>0.3386652741210128</v>
+        <v>1.087483993672322</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1322080880331455</v>
+        <v>0.2810504725507244</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.4092801309806902</v>
+        <v>0.6907912381850423</v>
       </c>
       <c r="H17">
-        <v>0.5049971448784731</v>
+        <v>0.3730538623304938</v>
       </c>
       <c r="I17">
-        <v>0.3354058021268465</v>
+        <v>0.2047114519380777</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4833754290709606</v>
+        <v>1.492767070422573</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.12830773230354</v>
+        <v>3.5716002728999</v>
       </c>
       <c r="C18">
-        <v>0.3306235895069563</v>
+        <v>1.059981685747573</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1306812982994501</v>
+        <v>0.273381728465445</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.407045258939803</v>
+        <v>0.6724725615241454</v>
       </c>
       <c r="H18">
-        <v>0.5053940315070236</v>
+        <v>0.3669784670244098</v>
       </c>
       <c r="I18">
-        <v>0.3366361012875849</v>
+        <v>0.2025133693734951</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4726352341110669</v>
+        <v>1.453006694788371</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.118969917720847</v>
+        <v>3.540164549235726</v>
       </c>
       <c r="C19">
-        <v>0.3278997554952525</v>
+        <v>1.050689229629796</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1301663784133638</v>
+        <v>0.2708024889535849</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.4062993751688992</v>
+        <v>0.6663461488644202</v>
       </c>
       <c r="H19">
-        <v>0.505536966319184</v>
+        <v>0.3649604463996781</v>
       </c>
       <c r="I19">
-        <v>0.3370605425551787</v>
+        <v>0.2018078755197692</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4690003691381008</v>
+        <v>1.439583153368019</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.160984214256359</v>
+        <v>3.681829338186617</v>
       </c>
       <c r="C20">
-        <v>0.3401531071751833</v>
+        <v>1.092583505709285</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1324916267741827</v>
+        <v>0.2824781616692178</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.4096988993376982</v>
+        <v>0.6942183803005548</v>
       </c>
       <c r="H20">
-        <v>0.5049277585002159</v>
+        <v>0.3741971197870129</v>
       </c>
       <c r="I20">
-        <v>0.3351818510070466</v>
+        <v>0.2051369695886542</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4853639510116636</v>
+        <v>1.500144631448663</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.302022689390242</v>
+        <v>4.161726974608939</v>
       </c>
       <c r="C21">
-        <v>0.3812492886266909</v>
+        <v>1.234852104880474</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1404464807521535</v>
+        <v>0.3230184353151344</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.4218792557769717</v>
+        <v>0.79357573828554</v>
       </c>
       <c r="H21">
-        <v>0.5034787584571205</v>
+        <v>0.4081397893466203</v>
       </c>
       <c r="I21">
-        <v>0.3294212095588982</v>
+        <v>0.2192058490145143</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5404547168535032</v>
+        <v>1.706596644298628</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.394103761667907</v>
+        <v>4.478828490671333</v>
       </c>
       <c r="C22">
-        <v>0.4080535473758005</v>
+        <v>1.329164340761338</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.14575327043719</v>
+        <v>0.3506314845475984</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.4304130210032326</v>
+        <v>0.8633037063000586</v>
       </c>
       <c r="H22">
-        <v>0.5029804916732559</v>
+        <v>0.4327376207591698</v>
       </c>
       <c r="I22">
-        <v>0.3260710145700898</v>
+        <v>0.230787587824679</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5765444304992258</v>
+        <v>1.844102445955542</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.344967336497007</v>
+        <v>4.309232278919922</v>
       </c>
       <c r="C23">
-        <v>0.3937525778320605</v>
+        <v>1.278692212413716</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1429109575836662</v>
+        <v>0.3357820364372657</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.4258054319502236</v>
+        <v>0.8256135762337777</v>
       </c>
       <c r="H23">
-        <v>0.5032051638058874</v>
+        <v>0.4193715956809854</v>
       </c>
       <c r="I23">
-        <v>0.327820893850042</v>
+        <v>0.2243716094665515</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5572748085850492</v>
+        <v>1.770452539987573</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.158677446632964</v>
+        <v>3.674036312536828</v>
       </c>
       <c r="C24">
-        <v>0.3394804883452593</v>
+        <v>1.09027768704766</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1323634041955586</v>
+        <v>0.2818323896106492</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.4095093807009107</v>
+        <v>0.6926675730475864</v>
       </c>
       <c r="H24">
-        <v>0.504958972131007</v>
+        <v>0.3736795339986259</v>
       </c>
       <c r="I24">
-        <v>0.3352829543300366</v>
+        <v>0.2049438740012839</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4844649265785392</v>
+        <v>1.496808561587955</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9573446041297871</v>
+        <v>3.000392659588613</v>
       </c>
       <c r="C25">
-        <v>0.2807037316394485</v>
+        <v>0.8914764373166975</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1214377892622949</v>
+        <v>0.2275686110558297</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3943408841237925</v>
+        <v>0.5665041457516509</v>
       </c>
       <c r="H25">
-        <v>0.5087569279820201</v>
+        <v>0.3332263647668725</v>
       </c>
       <c r="I25">
-        <v>0.3450887399219198</v>
+        <v>0.1927566501811917</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4062801490012333</v>
+        <v>1.21046128106353</v>
       </c>
       <c r="N25">
         <v>0</v>
